--- a/KDynamicsExogenousP.xlsx
+++ b/KDynamicsExogenousP.xlsx
@@ -8,15 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nathan\Downloads\Model1_Maurizio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A9AC2DD-CFB7-4C6B-ACC2-27D9C093519A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77626F06-027F-4BB6-93F5-59E44DD76415}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="1305" windowWidth="22965" windowHeight="14295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1080" yWindow="1020" windowWidth="22965" windowHeight="14295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Chart1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1641,8 +1649,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="P27" sqref="P27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2776,7 +2784,7 @@
         <v>1.1749999999999998</v>
       </c>
       <c r="T13">
-        <v>1.0691431145635357</v>
+        <v>1.0691431145635399</v>
       </c>
       <c r="U13">
         <v>5.92242776143799E-2</v>
